--- a/C-3/问题3/因果效应结果.xlsx
+++ b/C-3/问题3/因果效应结果.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yeah\Desktop\2024-CPGMCM\C-3\问题3\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AADEC04-4982-4915-B093-CC41888727C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -22,54 +28,55 @@
     <t>Mean Value</t>
   </si>
   <si>
+    <t>p-value</t>
+  </si>
+  <si>
+    <t>温度，oC</t>
+  </si>
+  <si>
+    <t>励磁波形</t>
+  </si>
+  <si>
+    <t>磁芯材料</t>
+  </si>
+  <si>
+    <t>mean</t>
+  </si>
+  <si>
+    <t>std</t>
+  </si>
+  <si>
+    <t>max</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>amplitude</t>
+  </si>
+  <si>
+    <t>energy</t>
+  </si>
+  <si>
+    <t>skewness</t>
+  </si>
+  <si>
+    <t>kurtosis</t>
+  </si>
+  <si>
     <t>New Effect</t>
-  </si>
-  <si>
-    <t>p-value</t>
-  </si>
-  <si>
-    <t>温度，oC</t>
-  </si>
-  <si>
-    <t>励磁波形</t>
-  </si>
-  <si>
-    <t>磁芯材料</t>
-  </si>
-  <si>
-    <t>mean</t>
-  </si>
-  <si>
-    <t>std</t>
-  </si>
-  <si>
-    <t>max</t>
-  </si>
-  <si>
-    <t>min</t>
-  </si>
-  <si>
-    <t>amplitude</t>
-  </si>
-  <si>
-    <t>energy</t>
-  </si>
-  <si>
-    <t>skewness</t>
-  </si>
-  <si>
-    <t>kurtosis</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -77,8 +84,15 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -124,17 +138,25 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -172,7 +194,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -206,6 +228,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -240,9 +263,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -415,14 +439,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="13.375" customWidth="1"/>
+    <col min="3" max="3" width="19.5" customWidth="1"/>
+    <col min="4" max="4" width="13.75" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -430,18 +461,18 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
       <c r="B2">
-        <v>-1182.519474195084</v>
+        <v>-1182.5194741950841</v>
       </c>
       <c r="C2">
         <v>-1182.549403805534</v>
@@ -450,68 +481,68 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>-11343.99991155753</v>
       </c>
       <c r="C3">
-        <v>-11352.68609468683</v>
+        <v>-11352.686094686829</v>
       </c>
       <c r="D3">
         <v>0.8</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>31705.66308399432</v>
+        <v>31705.663083994321</v>
       </c>
       <c r="C4">
-        <v>31705.00417756914</v>
+        <v>31705.004177569139</v>
       </c>
       <c r="D4">
         <v>0.9</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5">
-        <v>314675329.6940079</v>
+        <v>314675329.69400799</v>
       </c>
       <c r="C5">
-        <v>314642168.0433539</v>
+        <v>314642168.04335392</v>
       </c>
       <c r="D5">
         <v>0.92</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>-16001543.0931886</v>
+        <v>-16001543.093188601</v>
       </c>
       <c r="C6">
-        <v>-16000716.05059697</v>
+        <v>-16000716.050596969</v>
       </c>
       <c r="D6">
         <v>0.98</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>1968117.621598068</v>
+        <v>1968117.6215980679</v>
       </c>
       <c r="C7">
         <v>1972164.190325564</v>
@@ -520,37 +551,37 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>-2186655.367075505</v>
+        <v>-2186655.3670755052</v>
       </c>
       <c r="C8">
         <v>-2182493.205837531</v>
       </c>
       <c r="D8">
-        <v>0.9399999999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9">
         <v>4154772.98873292</v>
       </c>
       <c r="C9">
-        <v>4154657.396217718</v>
+        <v>4154657.3962177178</v>
       </c>
       <c r="D9">
-        <v>0.9199999999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.91999999999999993</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10">
         <v>12976.4682073897</v>
@@ -562,35 +593,36 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>-776.4434628296876</v>
+        <v>-776.44346282968763</v>
       </c>
       <c r="C11">
-        <v>-777.3241304736079</v>
+        <v>-777.32413047360785</v>
       </c>
       <c r="D11">
         <v>0.86</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B12">
         <v>-33.40033394494094</v>
       </c>
       <c r="C12">
-        <v>-33.39157408244763</v>
+        <v>-33.391574082447633</v>
       </c>
       <c r="D12">
-        <v>0.9399999999999999</v>
+        <v>0.94</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>